--- a/biology/Botanique/Square_Ernest-Chausson/Square_Ernest-Chausson.xlsx
+++ b/biology/Botanique/Square_Ernest-Chausson/Square_Ernest-Chausson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Ernest-Chausson est un square du 17e arrondissement de Paris, dans le quartier des Batignolles.
@@ -512,9 +524,11 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square est situé au 55, avenue de Clichy[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square est situé au 55, avenue de Clichy.
 Il est desservi par la ligne 13 à la station La Fourche.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il doit son nom au compositeur français Ernest Chausson (1855-1899).
 </t>
@@ -575,9 +591,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En novembre 2020, le square est décrit par un conseiller de Paris du 17e arrondissement, Paul Hatte, comme une zone de non-droit, occupé par une vingtaine de jeunes extérieurs au quartier s’y livrant au trafic de drogue et y organisant barbecues et rodéos sauvages[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En novembre 2020, le square est décrit par un conseiller de Paris du 17e arrondissement, Paul Hatte, comme une zone de non-droit, occupé par une vingtaine de jeunes extérieurs au quartier s’y livrant au trafic de drogue et y organisant barbecues et rodéos sauvages.
 </t>
         </is>
       </c>
